--- a/CelticProject_Framework-main/src/test/resources/DataProvider/RIN.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/RIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0D51CC-D2EF-454B-BE88-E52B94F85068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A68584-45A4-4C99-BECE-80789162EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{D640E293-758B-4626-A40B-CD56E3B07BFF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{D640E293-758B-4626-A40B-CD56E3B07BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19350A59-09D4-4F0F-9855-31C3D933F9C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F48C43F-3384-475E-85A0-187445A3DB1A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
